--- a/retail_dash/internet_dynamic.xlsx
+++ b/retail_dash/internet_dynamic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gogat\Desktop\диплом\дашборд_данные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gogat\Desktop\retail_dash\dashboard_D\retail_dash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473BDE9F-CD7B-4382-885D-9F00FD70A41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1FA173-D15C-4642-9298-58976BD36B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
